--- a/biology/Zoologie/Cephalotes_inca/Cephalotes_inca.xlsx
+++ b/biology/Zoologie/Cephalotes_inca/Cephalotes_inca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes inca, est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes inca, est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est native de l'Équateur et du Pérou[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est native de l'Équateur et du Pérou.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Inca fut décrite et classifiée pour la première fois par l'entomologiste suisse Félix Santschi, en 1911.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
